--- a/dataset/哈利波特/output/角色统计/哈利波特与魔法石 第15章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与魔法石 第15章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>角色</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>海德薇</t>
+  </si>
+  <si>
+    <t>斯普劳特</t>
   </si>
   <si>
     <t>牙牙</t>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,7 +482,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -534,7 +537,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -545,7 +548,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -556,7 +559,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -584,6 +587,17 @@
         <v>15</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
